--- a/examples/1D_sizing/AxStream_Inputs.xlsx
+++ b/examples/1D_sizing/AxStream_Inputs.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benne\PycharmProjects\estorage\examples\1D_sizing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jab6ft\PycharmProjects\estorage\examples\1D_sizing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D507E47-4C65-4FA6-A5ED-A7AA1C8E3726}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{40190B12-3E95-41D6-95E9-F9A1E4282D30}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,11 +151,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,21 +470,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C947FFA-ED55-4724-835E-EBEEF9622ECB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -495,7 +495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -506,7 +506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -517,7 +517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -528,7 +528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -539,7 +539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -547,12 +547,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -588,7 +588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -612,7 +612,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -636,13 +636,13 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12">
-        <f>LOG(C4/C3)/LOG(C9)</f>
-        <v>3.1176360194579749</v>
+        <f>(C4/C3)^(1/C9)</f>
+        <v>1.7697628249934585</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -650,20 +650,36 @@
       <c r="F12" t="s">
         <v>3</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="4">
         <f>G10*C12</f>
-        <v>3.158944696715793</v>
-      </c>
-      <c r="H12">
+        <v>1.7932121824246219</v>
+      </c>
+      <c r="H12" s="4">
         <f>G12*$C$12</f>
-        <v>9.8484397699569044</v>
-      </c>
-      <c r="I12">
+        <v>3.1735602577804838</v>
+      </c>
+      <c r="I12" s="4">
         <f>H12*$C$12</f>
-        <v>30.703850562280056</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>5.6164489670965576</v>
+      </c>
+      <c r="J12" s="4">
+        <f>I12*$C$12</f>
+        <v>9.9397825904403962</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" ref="K12:M12" si="1">J12*$C$12</f>
+        <v>17.591057717078591</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="1"/>
+        <v>31.131999999999987</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="1"/>
+        <v>55.096256267696326</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>4</v>
       </c>
@@ -679,8 +695,24 @@
         <f>H13</f>
         <v>13.82</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <f>I13</f>
+        <v>13.82</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:M13" si="2">J13</f>
+        <v>13.82</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>13.82</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>13.82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
@@ -688,7 +720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -709,27 +741,27 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:M16" si="1">H16+1</f>
+        <f t="shared" ref="I16:M16" si="3">H16+1</f>
         <v>3</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -753,7 +785,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>14</v>
       </c>
@@ -777,13 +809,13 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19">
-        <f>LOG(C4/C3)/LOG(C16)</f>
-        <v>3.1176360194579749</v>
+        <f>(C4/C3)^(1/C16)</f>
+        <v>3.1320604567288273</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
@@ -793,18 +825,18 @@
       </c>
       <c r="G19">
         <f>G18/C19</f>
-        <v>9.9857712079592087</v>
+        <v>9.939782590440398</v>
       </c>
       <c r="H19">
         <f>G19/$C$19</f>
-        <v>3.2029945592222506</v>
+        <v>3.1735602577804842</v>
       </c>
       <c r="I19">
         <f>H19/$C$19</f>
-        <v>1.0273792512119859</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1.01325</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>4</v>
       </c>
